--- a/rmonize/data_dictionary/DD_KORA_S1_P2.xlsx
+++ b/rmonize/data_dictionary/DD_KORA_S1_P2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_dictionary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F313C68-BA21-4572-8CEC-EA01691045DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A769CDA9-C71C-421A-894D-2033A302B774}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10125" xr2:uid="{F66E816F-B844-4025-9D57-703EE86FBE35}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{F66E816F-B844-4025-9D57-703EE86FBE35}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -40,18 +40,21 @@
     <t>valueType</t>
   </si>
   <si>
+    <t>a_id</t>
+  </si>
+  <si>
     <t>ID of the participant</t>
   </si>
   <si>
+    <t>integer</t>
+  </si>
+  <si>
     <t>acsex</t>
   </si>
   <si>
     <t>sex</t>
   </si>
   <si>
-    <t>integer</t>
-  </si>
-  <si>
     <t>atalteru</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>level of education</t>
   </si>
   <si>
+    <t>atemploy</t>
+  </si>
+  <si>
     <t>employment status</t>
   </si>
   <si>
@@ -79,15 +85,15 @@
     <t>Age quitting cigarette smoking</t>
   </si>
   <si>
+    <t>decimal</t>
+  </si>
+  <si>
     <t>atbmi</t>
   </si>
   <si>
     <t>BMI</t>
   </si>
   <si>
-    <t>decimal</t>
-  </si>
-  <si>
     <t>k4tbmi</t>
   </si>
   <si>
@@ -118,15 +124,36 @@
     <t>actual hypertension</t>
   </si>
   <si>
+    <t>atcvd</t>
+  </si>
+  <si>
+    <t>history of CVD</t>
+  </si>
+  <si>
+    <t>atmvcvd</t>
+  </si>
+  <si>
     <t>stroke or MI history of father or mother</t>
   </si>
   <si>
+    <t>atmvdiab</t>
+  </si>
+  <si>
     <t>diabetes history of father or mother</t>
   </si>
   <si>
+    <t>atmvca</t>
+  </si>
+  <si>
     <t>cancer history of father or mother</t>
   </si>
   <si>
+    <t>atmstati</t>
+  </si>
+  <si>
+    <t>use of statins</t>
+  </si>
+  <si>
     <t>inz_mi_16</t>
   </si>
   <si>
@@ -151,9 +178,15 @@
     <t>age at end of follow-up or stroke</t>
   </si>
   <si>
+    <t>inz_apo_isc_16</t>
+  </si>
+  <si>
     <t>validated incidence ischaemic stroke</t>
   </si>
   <si>
+    <t>inz_apo_haem_16</t>
+  </si>
+  <si>
     <t>validatet incidence haemorrhagic stroke</t>
   </si>
   <si>
@@ -637,6 +670,12 @@
     <t>other processed fruit</t>
   </si>
   <si>
+    <t>AV131</t>
+  </si>
+  <si>
+    <t>all kinds of minced meat</t>
+  </si>
+  <si>
     <t>variable</t>
   </si>
   <si>
@@ -685,30 +724,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>atmstati</t>
-  </si>
-  <si>
-    <t>A_ID</t>
-  </si>
-  <si>
-    <t>ATEMPLOY</t>
-  </si>
-  <si>
-    <t>ATMVCVD</t>
-  </si>
-  <si>
-    <t>ATMVDIAB</t>
-  </si>
-  <si>
-    <t>ATMVCA</t>
-  </si>
-  <si>
-    <t>INZ_APO_ISC_16</t>
-  </si>
-  <si>
-    <t>INZ_APO_HAEM_16</t>
-  </si>
-  <si>
     <t>employed-full time</t>
   </si>
   <si>
@@ -728,28 +743,13 @@
   </si>
   <si>
     <t>other</t>
-  </si>
-  <si>
-    <t>use of statins</t>
-  </si>
-  <si>
-    <t>ATCVD</t>
-  </si>
-  <si>
-    <t>history of CVD</t>
-  </si>
-  <si>
-    <t>AV131</t>
-  </si>
-  <si>
-    <t>all kinds of minced meat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -835,6 +835,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -856,7 +861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -916,23 +921,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -948,7 +942,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1246,11 +1240,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2CBB1F-BD60-4F64-AB96-FAE7D77C8064}">
   <dimension ref="A1:J313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.5703125" customWidth="1"/>
     <col min="3" max="3" width="34.5703125" style="11" customWidth="1"/>
@@ -1278,13 +1272,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1292,295 +1286,295 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="B11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="B16" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="B17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="B18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="B19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="B21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="B22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
-        <v>14</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
-        <v>15</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="30">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="25">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="30">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="25">
-        <v>22</v>
-      </c>
       <c r="B23" s="5" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="2"/>
@@ -1591,58 +1585,58 @@
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
+      <c r="A24" s="11">
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="25">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30">
+      <c r="A26" s="11">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E27" s="2"/>
@@ -1652,17 +1646,17 @@
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30">
+      <c r="A28" s="11">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1671,16 +1665,16 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="2"/>
@@ -1690,1080 +1684,1080 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="30">
+      <c r="A30" s="11">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>45</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>47</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
         <v>51</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="B52" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="25">
-        <v>30</v>
-      </c>
-      <c r="B31" s="5" t="s">
+      <c r="B53" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
         <v>53</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="B54" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="30">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="B55" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
         <v>55</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="B56" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="25">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4" t="s">
+      <c r="B57" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
         <v>57</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="B58" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="30">
-        <v>33</v>
-      </c>
-      <c r="B34" s="4" t="s">
+      <c r="B59" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="11">
         <v>59</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="B60" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="25">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="B61" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="11">
         <v>61</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="B62" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="30">
-        <v>35</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="B63" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="11">
         <v>63</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="B64" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="25">
-        <v>36</v>
-      </c>
-      <c r="B37" s="4" t="s">
+      <c r="B65" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="11">
         <v>65</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="B66" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="30">
-        <v>37</v>
-      </c>
-      <c r="B38" s="4" t="s">
+      <c r="B67" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="11">
         <v>67</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="B68" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="25">
-        <v>38</v>
-      </c>
-      <c r="B39" s="4" t="s">
+      <c r="B69" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="11">
         <v>69</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="B70" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="30">
-        <v>39</v>
-      </c>
-      <c r="B40" s="4" t="s">
+      <c r="B71" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="11">
         <v>71</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="B72" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="25">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4" t="s">
+      <c r="B73" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="11">
         <v>73</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="B74" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="30">
-        <v>41</v>
-      </c>
-      <c r="B42" s="6" t="s">
+      <c r="B75" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="11">
         <v>75</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="B76" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="25">
-        <v>42</v>
-      </c>
-      <c r="B43" s="5" t="s">
+      <c r="B77" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="11">
         <v>77</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="B78" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>78</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="30">
-        <v>43</v>
-      </c>
-      <c r="B44" s="5" t="s">
+      <c r="B79" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="11">
         <v>79</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="B80" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="25">
-        <v>44</v>
-      </c>
-      <c r="B45" s="5" t="s">
+      <c r="B81" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="11">
         <v>81</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="B82" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="30">
-        <v>45</v>
-      </c>
-      <c r="B46" s="20" t="s">
+      <c r="B83" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="11">
         <v>83</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="B84" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="D46" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="25">
-        <v>46</v>
-      </c>
-      <c r="B47" s="20" t="s">
+      <c r="B85" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="11">
         <v>85</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="B86" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>86</v>
       </c>
-      <c r="D47" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="30">
-        <v>47</v>
-      </c>
-      <c r="B48" s="20" t="s">
+      <c r="B87" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="11">
         <v>87</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="B88" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>88</v>
       </c>
-      <c r="D48" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="25">
-        <v>48</v>
-      </c>
-      <c r="B49" s="6" t="s">
+      <c r="B89" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="11">
         <v>89</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="B90" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>90</v>
       </c>
-      <c r="D49" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="30">
-        <v>49</v>
-      </c>
-      <c r="B50" s="6" t="s">
+      <c r="B91" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="11">
         <v>91</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="B92" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>92</v>
       </c>
-      <c r="D50" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="25">
-        <v>50</v>
-      </c>
-      <c r="B51" s="6" t="s">
+      <c r="B93" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="11">
         <v>93</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="B94" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>94</v>
       </c>
-      <c r="D51" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="30">
-        <v>51</v>
-      </c>
-      <c r="B52" s="20" t="s">
+      <c r="B95" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="11">
         <v>95</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="B96" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>96</v>
       </c>
-      <c r="D52" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="25">
-        <v>52</v>
-      </c>
-      <c r="B53" s="20" t="s">
+      <c r="B97" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="11">
         <v>97</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="B98" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>98</v>
       </c>
-      <c r="D53" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="30">
-        <v>53</v>
-      </c>
-      <c r="B54" s="6" t="s">
+      <c r="B99" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="11">
         <v>99</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="B100" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>100</v>
       </c>
-      <c r="D54" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="25">
-        <v>54</v>
-      </c>
-      <c r="B55" s="6" t="s">
+      <c r="B101" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="11">
         <v>101</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="B102" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>102</v>
       </c>
-      <c r="D55" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="30">
-        <v>55</v>
-      </c>
-      <c r="B56" s="20" t="s">
+      <c r="B103" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="11">
         <v>103</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="B104" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>104</v>
       </c>
-      <c r="D56" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="25">
-        <v>56</v>
-      </c>
-      <c r="B57" s="20" t="s">
+      <c r="B105" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="11">
         <v>105</v>
       </c>
-      <c r="C57" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D57" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="30">
-        <v>57</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="25">
-        <v>58</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D59" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="30">
-        <v>59</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="25">
-        <v>60</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D61" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="30">
-        <v>61</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="25">
-        <v>62</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D63" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="30">
-        <v>63</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="25">
-        <v>64</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D65" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="30">
-        <v>65</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="25">
-        <v>66</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="D67" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="30">
-        <v>67</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D68" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="25">
-        <v>68</v>
-      </c>
-      <c r="B69" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D69" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="30">
-        <v>69</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D70" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="25">
-        <v>70</v>
-      </c>
-      <c r="B71" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="C71" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D71" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="30">
-        <v>71</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="25">
-        <v>72</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D73" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="30">
-        <v>73</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D74" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="25">
-        <v>74</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="D75" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="30">
-        <v>75</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="D76" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="25">
-        <v>76</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D77" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="30">
-        <v>77</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C78" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D78" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="25">
-        <v>78</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D79" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="30">
-        <v>79</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C80" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="D80" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="25">
-        <v>80</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="D81" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="30">
-        <v>81</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D82" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="25">
-        <v>82</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="D83" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="30">
-        <v>83</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="D84" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="25">
-        <v>84</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C85" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="D85" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="30">
-        <v>85</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D86" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="25">
-        <v>86</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D87" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="30">
-        <v>87</v>
-      </c>
-      <c r="B88" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="C88" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="D88" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="25">
-        <v>88</v>
-      </c>
-      <c r="B89" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D89" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="30">
-        <v>89</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="D90" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="25">
-        <v>90</v>
-      </c>
-      <c r="B91" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="C91" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="D91" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="30">
-        <v>91</v>
-      </c>
-      <c r="B92" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="C92" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="D92" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="25">
-        <v>92</v>
-      </c>
-      <c r="B93" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="C93" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="D93" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="30">
-        <v>93</v>
-      </c>
-      <c r="B94" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="C94" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="D94" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="25">
-        <v>94</v>
-      </c>
-      <c r="B95" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="D95" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="30">
-        <v>95</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D96" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="25">
-        <v>96</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D97" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="30">
-        <v>97</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D98" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="25">
-        <v>98</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D99" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="30">
-        <v>99</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D100" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="25">
-        <v>100</v>
-      </c>
-      <c r="B101" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="D101" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="30">
-        <v>101</v>
-      </c>
-      <c r="B102" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="D102" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="25">
-        <v>102</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C103" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="D103" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="30">
-        <v>103</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C104" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="D104" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="25">
-        <v>104</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C105" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="D105" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="30">
-        <v>105</v>
-      </c>
       <c r="B106" s="6" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="D106" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3539,6 +3533,7 @@
     <sortCondition ref="A2:A95"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3546,11 +3541,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2A9C4F-4DB8-4E79-A3FD-0B1BDC762B9F}">
   <dimension ref="A1:D279"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -3559,7 +3554,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
@@ -3568,546 +3563,546 @@
         <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="10">
         <v>0</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="10">
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="10">
         <v>2</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="10">
         <v>3</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="10">
         <v>4</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="10">
         <v>5</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" s="10">
         <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" s="10">
         <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" s="10">
         <v>3</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" s="10">
         <v>4</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" s="10">
         <v>0</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" s="10">
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" s="10">
         <v>0</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" s="10">
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="B18" s="29">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="10">
         <v>0</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="B19" s="29">
+      <c r="C18" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="10">
         <v>1</v>
       </c>
-      <c r="C19" s="26" t="s">
-        <v>218</v>
+      <c r="C19" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="B20" s="10">
         <v>0</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="B21" s="10">
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B22" s="10">
         <v>0</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B23" s="10">
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B24" s="10">
         <v>0</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B25" s="10">
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="B26" s="10">
         <v>0</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="B27" s="10">
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="B28" s="10">
         <v>0</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="B29" s="10">
         <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B30" s="10">
         <v>0</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B31" s="10">
         <v>1</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B32" s="10">
         <v>0</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B33" s="10">
         <v>1</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B34" s="10">
         <v>0</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B35" s="10">
         <v>1</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B36" s="10">
         <v>0</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B37" s="10">
         <v>1</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>221</v>
+        <v>13</v>
       </c>
       <c r="B38" s="10">
         <v>1</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>221</v>
+        <v>13</v>
       </c>
       <c r="B39" s="10">
         <v>2</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>221</v>
+        <v>13</v>
       </c>
       <c r="B40" s="10">
         <v>3</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>221</v>
+        <v>13</v>
       </c>
       <c r="B41" s="10">
         <v>4</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>221</v>
+        <v>13</v>
       </c>
       <c r="B42" s="10">
         <v>5</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>221</v>
+        <v>13</v>
       </c>
       <c r="B43" s="10">
         <v>6</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>221</v>
+        <v>13</v>
       </c>
       <c r="B44" s="10">
         <v>7</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>222</v>
+        <v>34</v>
       </c>
       <c r="B45" s="10">
         <v>0</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>222</v>
+        <v>34</v>
       </c>
       <c r="B46" s="10">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>223</v>
+        <v>36</v>
       </c>
       <c r="B47" s="10">
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>223</v>
+        <v>36</v>
       </c>
       <c r="B48" s="10">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>224</v>
+        <v>38</v>
       </c>
       <c r="B49" s="10">
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>224</v>
+        <v>38</v>
       </c>
       <c r="B50" s="10">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -4804,6 +4799,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
@@ -4815,7 +4819,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -5056,28 +5060,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C5FC19-F4BC-4ACD-86FC-72730E460845}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDB1557E-B519-46C1-8C0E-CA7CA5BBAB79}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F526E0D9-8A41-47B6-B704-3620EE698264}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C5FC19-F4BC-4ACD-86FC-72730E460845}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72C16DF1-BB06-4A20-A541-CB814E271E24}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -5093,12 +5102,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDB1557E-B519-46C1-8C0E-CA7CA5BBAB79}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/rmonize/data_dictionary/DD_KORA_S1_P2.xlsx
+++ b/rmonize/data_dictionary/DD_KORA_S1_P2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_dictionary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A769CDA9-C71C-421A-894D-2033A302B774}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958C1041-E37B-4E1A-9092-18A85CE938C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{F66E816F-B844-4025-9D57-703EE86FBE35}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14028" xr2:uid="{F66E816F-B844-4025-9D57-703EE86FBE35}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -926,7 +926,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -942,7 +942,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1240,18 +1240,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2CBB1F-BD60-4F64-AB96-FAE7D77C8064}">
   <dimension ref="A1:J313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1267,7 +1267,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1306,10 +1306,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1645,7 +1645,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -1664,7 +1664,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1683,7 +1683,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
         <v>57</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="11">
         <v>59</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="11">
         <v>61</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="11">
         <v>63</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>65</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>67</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>69</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="11">
         <v>71</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="11">
         <v>73</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="11">
         <v>75</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="11">
         <v>77</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="11">
         <v>79</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="11">
         <v>81</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="11">
         <v>83</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="11">
         <v>85</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="11">
         <v>87</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="11">
         <v>89</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="11">
         <v>91</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="11">
         <v>93</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="11">
         <v>95</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="11">
         <v>97</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="11">
         <v>99</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="11">
         <v>101</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="11">
         <v>103</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="11">
         <v>105</v>
       </c>
@@ -2761,771 +2761,771 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B107" s="5"/>
       <c r="D107" s="5"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B108" s="5"/>
       <c r="D108" s="5"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B109" s="5"/>
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B110" s="5"/>
       <c r="D110" s="5"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B111" s="5"/>
       <c r="D111" s="5"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B112" s="5"/>
       <c r="D112" s="4"/>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B113" s="5"/>
       <c r="D113" s="4"/>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B114" s="5"/>
       <c r="D114" s="5"/>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B115" s="5"/>
       <c r="D115" s="4"/>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B116" s="5"/>
       <c r="D116" s="4"/>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B117" s="5"/>
       <c r="D117" s="4"/>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B118" s="5"/>
       <c r="D118" s="4"/>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B119" s="5"/>
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B120" s="6"/>
       <c r="D120" s="4"/>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B121" s="5"/>
       <c r="D121" s="5"/>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B122" s="5"/>
       <c r="D122" s="5"/>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B123" s="5"/>
       <c r="D123" s="4"/>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B124" s="5"/>
       <c r="D124" s="5"/>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B125" s="5"/>
       <c r="D125" s="5"/>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B126" s="4"/>
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B127" s="4"/>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B128" s="5"/>
       <c r="D128" s="5"/>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B129" s="5"/>
       <c r="D129" s="5"/>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B130" s="5"/>
       <c r="D130" s="5"/>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B131" s="5"/>
       <c r="D131" s="5"/>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B132" s="5"/>
       <c r="D132" s="5"/>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B133" s="5"/>
       <c r="D133" s="5"/>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B134" s="6"/>
       <c r="D134" s="5"/>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B135" s="6"/>
       <c r="D135" s="5"/>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B136" s="6"/>
       <c r="D136" s="5"/>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B137" s="5"/>
       <c r="D137" s="5"/>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B138" s="5"/>
       <c r="D138" s="5"/>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B139" s="5"/>
       <c r="D139" s="5"/>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B140" s="5"/>
       <c r="D140" s="5"/>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B141" s="5"/>
       <c r="D141" s="5"/>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B142" s="5"/>
       <c r="D142" s="5"/>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B143" s="5"/>
       <c r="D143" s="5"/>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B144" s="6"/>
       <c r="D144" s="5"/>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B145" s="6"/>
       <c r="D145" s="5"/>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B146" s="5"/>
       <c r="D146" s="5"/>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B147" s="5"/>
       <c r="D147" s="5"/>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B148" s="5"/>
       <c r="D148" s="5"/>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B149" s="5"/>
       <c r="D149" s="5"/>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B150" s="6"/>
       <c r="D150" s="5"/>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B151" s="6"/>
       <c r="D151" s="5"/>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B152" s="5"/>
       <c r="D152" s="5"/>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B153" s="4"/>
       <c r="D153" s="5"/>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B154" s="6"/>
       <c r="D154" s="5"/>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B155" s="5"/>
       <c r="D155" s="5"/>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B156" s="5"/>
       <c r="D156" s="5"/>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B157" s="5"/>
       <c r="D157" s="5"/>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B158" s="5"/>
       <c r="D158" s="5"/>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B159" s="5"/>
       <c r="D159" s="5"/>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B160" s="5"/>
       <c r="D160" s="5"/>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B161" s="5"/>
       <c r="D161" s="5"/>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B162" s="5"/>
       <c r="D162" s="5"/>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B163" s="5"/>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B164" s="5"/>
       <c r="D164" s="5"/>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B165" s="5"/>
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B166" s="5"/>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B167" s="5"/>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B168" s="5"/>
       <c r="D168" s="5"/>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B169" s="5"/>
       <c r="D169" s="5"/>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B170" s="5"/>
       <c r="D170" s="5"/>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B171" s="5"/>
       <c r="D171" s="5"/>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B172" s="5"/>
       <c r="D172" s="5"/>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B173" s="5"/>
       <c r="D173" s="5"/>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B174" s="5"/>
       <c r="D174" s="5"/>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B175" s="5"/>
       <c r="D175" s="5"/>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B176" s="5"/>
       <c r="D176" s="5"/>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B177" s="5"/>
       <c r="D177" s="5"/>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B178" s="5"/>
       <c r="D178" s="5"/>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B179" s="5"/>
       <c r="D179" s="5"/>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B180" s="5"/>
       <c r="D180" s="5"/>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B181" s="5"/>
       <c r="D181" s="5"/>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B182" s="5"/>
       <c r="D182" s="5"/>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B183" s="5"/>
       <c r="D183" s="5"/>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B184" s="5"/>
       <c r="D184" s="5"/>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B185" s="5"/>
       <c r="D185" s="5"/>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B186" s="5"/>
       <c r="D186" s="5"/>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B187" s="5"/>
       <c r="D187" s="5"/>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B188" s="5"/>
       <c r="D188" s="5"/>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B189" s="5"/>
       <c r="D189" s="5"/>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B190" s="5"/>
       <c r="D190" s="5"/>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B191" s="5"/>
       <c r="D191" s="5"/>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B192" s="5"/>
       <c r="D192" s="5"/>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B193" s="5"/>
       <c r="D193" s="5"/>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B194" s="5"/>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B195" s="5"/>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B196" s="5"/>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B197" s="5"/>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B198" s="5"/>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B199" s="5"/>
       <c r="D199" s="5"/>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B200" s="5"/>
       <c r="D200" s="5"/>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B201" s="5"/>
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B202" s="5"/>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B203" s="5"/>
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B204" s="5"/>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B205" s="5"/>
       <c r="D205" s="5"/>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B206" s="5"/>
       <c r="D206" s="5"/>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B207" s="5"/>
       <c r="D207" s="5"/>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B208" s="5"/>
       <c r="D208" s="5"/>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B209" s="5"/>
       <c r="D209" s="5"/>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B210" s="5"/>
       <c r="D210" s="5"/>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B211" s="5"/>
       <c r="D211" s="5"/>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B212" s="5"/>
       <c r="D212" s="5"/>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B213" s="5"/>
       <c r="D213" s="5"/>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B214" s="5"/>
       <c r="D214" s="5"/>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B215" s="5"/>
       <c r="D215" s="5"/>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B216" s="5"/>
       <c r="D216" s="5"/>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B217" s="5"/>
       <c r="D217" s="5"/>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B218" s="5"/>
       <c r="D218" s="5"/>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B219" s="5"/>
       <c r="D219" s="5"/>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B220" s="5"/>
       <c r="D220" s="5"/>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B221" s="5"/>
       <c r="D221" s="5"/>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B222" s="5"/>
       <c r="D222" s="5"/>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B223" s="5"/>
       <c r="D223" s="5"/>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B224" s="5"/>
       <c r="D224" s="5"/>
     </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B225" s="5"/>
       <c r="D225" s="5"/>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B226" s="5"/>
       <c r="D226" s="5"/>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B227" s="5"/>
       <c r="D227" s="5"/>
     </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B228" s="5"/>
       <c r="D228" s="5"/>
     </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B229" s="5"/>
       <c r="D229" s="5"/>
     </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B230" s="5"/>
       <c r="D230" s="5"/>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B231" s="5"/>
       <c r="D231" s="5"/>
     </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B232" s="5"/>
       <c r="D232" s="5"/>
     </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B233" s="5"/>
       <c r="D233" s="5"/>
     </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B234" s="5"/>
       <c r="D234" s="5"/>
     </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B235" s="5"/>
       <c r="D235" s="5"/>
     </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B236" s="5"/>
       <c r="D236" s="5"/>
     </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B237" s="5"/>
       <c r="D237" s="5"/>
     </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B238" s="5"/>
       <c r="D238" s="5"/>
     </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B239" s="5"/>
       <c r="D239" s="5"/>
     </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B240" s="5"/>
       <c r="D240" s="5"/>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B241" s="5"/>
       <c r="D241" s="5"/>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B242" s="5"/>
       <c r="D242" s="6"/>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B243" s="5"/>
       <c r="D243" s="6"/>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B244" s="5"/>
       <c r="D244" s="6"/>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B245" s="5"/>
       <c r="D245" s="6"/>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B246" s="5"/>
       <c r="D246" s="6"/>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B247" s="5"/>
       <c r="D247" s="6"/>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B248" s="5"/>
       <c r="D248" s="6"/>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B249" s="5"/>
       <c r="D249" s="6"/>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B250" s="5"/>
       <c r="D250" s="6"/>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B251" s="5"/>
       <c r="D251" s="6"/>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B252" s="5"/>
       <c r="D252" s="6"/>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D253" s="6"/>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D254" s="6"/>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D255" s="6"/>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D256" s="6"/>
     </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D257" s="6"/>
     </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D258" s="6"/>
     </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D259" s="6"/>
     </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D260" s="6"/>
     </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D261" s="6"/>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D262" s="6"/>
     </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D263" s="6"/>
     </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D264" s="6"/>
     </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D265" s="6"/>
     </row>
-    <row r="266" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D266" s="6"/>
     </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D267" s="6"/>
     </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D268" s="6"/>
     </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D269" s="6"/>
     </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D270" s="6"/>
     </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D271" s="6"/>
     </row>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D272" s="6"/>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D273" s="6"/>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D274" s="6"/>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D275" s="6"/>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D276" s="6"/>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D277" s="6"/>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D278" s="6"/>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D279" s="6"/>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D280" s="6"/>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D281" s="6"/>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D282" s="6"/>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D283" s="6"/>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D284" s="6"/>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D285" s="6"/>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D286" s="6"/>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D287" s="6"/>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D288" s="6"/>
     </row>
-    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D289" s="6"/>
     </row>
-    <row r="290" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D290" s="6"/>
     </row>
-    <row r="291" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D291" s="6"/>
     </row>
-    <row r="292" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D292" s="6"/>
     </row>
-    <row r="293" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D293" s="6"/>
     </row>
-    <row r="294" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D294" s="6"/>
     </row>
-    <row r="295" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D295" s="6"/>
     </row>
-    <row r="296" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D296" s="6"/>
     </row>
-    <row r="297" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D297" s="6"/>
     </row>
-    <row r="298" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D298" s="6"/>
     </row>
-    <row r="299" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D299" s="6"/>
     </row>
-    <row r="300" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D300" s="6"/>
     </row>
-    <row r="301" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D301" s="6"/>
     </row>
-    <row r="302" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D302" s="6"/>
     </row>
-    <row r="303" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D303" s="6"/>
     </row>
-    <row r="304" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D304" s="6"/>
     </row>
-    <row r="305" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D305" s="6"/>
     </row>
-    <row r="306" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D306" s="6"/>
     </row>
-    <row r="307" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D307" s="6"/>
     </row>
-    <row r="308" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D308" s="6"/>
     </row>
-    <row r="309" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D309" s="6"/>
     </row>
-    <row r="310" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D310" s="6"/>
     </row>
-    <row r="311" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D311" s="6"/>
     </row>
-    <row r="312" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D312" s="6"/>
     </row>
-    <row r="313" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D313" s="6"/>
     </row>
   </sheetData>
@@ -3545,14 +3545,14 @@
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>216</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>32</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>40</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>42</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>46</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>46</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>50</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>50</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>52</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>52</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>54</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>54</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>58</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>58</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>62</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>62</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>64</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>64</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>13</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>13</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>13</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>13</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>13</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>13</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>13</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>34</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>34</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>36</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>36</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>38</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>38</v>
       </c>
@@ -4105,691 +4105,691 @@
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="8"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="8"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="8"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="8"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="8"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="8"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="8"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="8"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="8"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="8"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="7"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="7"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="8"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="7"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="7"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="7"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="8"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="7"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="7"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="7"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="8"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="7"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="7"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="7"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="7"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="7"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="7"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="7"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="8"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="8"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="8"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="8"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="8"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="8"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="8"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="7"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="8"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="8"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="7"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="7"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="7"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="7"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="8"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="8"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="8"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="8"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="8"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="8"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="8"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="8"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="8"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="8"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="8"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="7"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="8"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="7"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="7"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="8"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="7"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="8"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="8"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="8"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="8"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="8"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="8"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="8"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="8"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="7"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="8"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="8"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="7"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="8"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="7"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="7"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="7"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="8"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="8"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="8"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="8"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="8"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="7"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="8"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="8"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="8"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="8"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="8"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="8"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="8"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="8"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="8"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="8"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="8"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="8"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="8"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="8"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="8"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="8"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="8"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="8"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="8"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="8"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="8"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="7"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="8"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="7"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="8"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="7"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="8"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="8"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="8"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="7"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="7"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="7"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="7"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="7"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="6"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="6"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="6"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="6"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="6"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="6"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="6"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="6"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="6"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="6"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="6"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="6"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="6"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="6"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="6"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="6"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="6"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="6"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="6"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="6"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="6"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="6"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="6"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="6"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="6"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="6"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="6"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="6"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="6"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="6"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="6"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="6"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="6"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="6"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="6"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="6"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="6"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="6"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="6"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="6"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="6"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="6"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="6"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="6"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="6"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="6"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="6"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="6"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="6"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="6"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="6"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="6"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="6"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="6"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="6"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="6"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="6"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="6"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="6"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="6"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="6"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="6"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" s="6"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" s="6"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="6"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="6"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="6"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="6"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="6"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="6"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="6"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" s="6"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="6"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" s="6"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" s="6"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" s="6"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="6"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" s="6"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" s="6"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" s="6"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" s="6"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" s="6"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" s="6"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" s="6"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" s="6"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" s="6"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" s="6"/>
     </row>
   </sheetData>
@@ -4799,27 +4799,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -5060,10 +5039,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDB1557E-B519-46C1-8C0E-CA7CA5BBAB79}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72C16DF1-BB06-4A20-A541-CB814E271E24}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5086,20 +5097,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72C16DF1-BB06-4A20-A541-CB814E271E24}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDB1557E-B519-46C1-8C0E-CA7CA5BBAB79}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rmonize/data_dictionary/DD_KORA_S1_P2.xlsx
+++ b/rmonize/data_dictionary/DD_KORA_S1_P2.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_dictionary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perrar\Documents\Perrar\NFDI4Health\TA5_1\use-cases-harmonisation\rmonize\data_dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958C1041-E37B-4E1A-9092-18A85CE938C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14028" xr2:uid="{F66E816F-B844-4025-9D57-703EE86FBE35}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14030"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
     <sheet name="Categories" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="241">
   <si>
     <t>index</t>
   </si>
@@ -280,12 +279,6 @@
     <t>polyunsaturated fat</t>
   </si>
   <si>
-    <t>akmd</t>
-  </si>
-  <si>
-    <t>total sugar</t>
-  </si>
-  <si>
     <t>akmt</t>
   </si>
   <si>
@@ -743,12 +736,24 @@
   </si>
   <si>
     <t>other</t>
+  </si>
+  <si>
+    <t>monosaccharides</t>
+  </si>
+  <si>
+    <t>disaccharides</t>
+  </si>
+  <si>
+    <t>akmosa</t>
+  </si>
+  <si>
+    <t>akdisa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1237,21 +1242,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2CBB1F-BD60-4F64-AB96-FAE7D77C8064}">
-  <dimension ref="A1:J313"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J314"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.5546875" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="33.54296875" customWidth="1"/>
+    <col min="3" max="3" width="34.54296875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1267,7 +1272,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1281,7 +1286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1295,7 +1300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1309,7 +1314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1323,7 +1328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1338,7 +1343,7 @@
       </c>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1353,7 +1358,7 @@
       </c>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1368,7 +1373,7 @@
       </c>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1382,7 +1387,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1396,7 +1401,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1410,7 +1415,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1424,7 +1429,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1438,7 +1443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1452,7 +1457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1466,7 +1471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -1480,7 +1485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1494,7 +1499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -1508,7 +1513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1522,7 +1527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -1536,7 +1541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1550,7 +1555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -1564,7 +1569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1584,7 +1589,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -1598,7 +1603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1612,7 +1617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -1626,7 +1631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1645,7 +1650,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -1664,7 +1669,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1683,7 +1688,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -1697,7 +1702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1711,7 +1716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -1725,7 +1730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1739,7 +1744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -1753,7 +1758,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1767,7 +1772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -1781,7 +1786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1795,7 +1800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -1809,7 +1814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1823,7 +1828,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -1837,1696 +1842,1710 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="11">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="11">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C43" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="11">
-        <v>41</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="D43" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="11">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="11">
         <v>45</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="11">
+        <v>46</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C48" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" s="20" t="s">
+      <c r="D48" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="11">
+        <v>48</v>
+      </c>
+      <c r="B49" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C49" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="11">
-        <v>47</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="11">
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="11">
         <v>51</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="11">
+        <v>52</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C54" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" s="20" t="s">
+      <c r="D54" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="11">
+        <v>54</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C55" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="11">
-        <v>53</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D55" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="11">
         <v>55</v>
       </c>
-      <c r="B56" s="20" t="s">
-        <v>114</v>
+      <c r="B56" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="11">
         <v>57</v>
       </c>
       <c r="B58" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="11">
+        <v>58</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C60" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" s="3" t="s">
+      <c r="D60" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="11">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="11">
-        <v>59</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D61" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="11">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="11">
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="11">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C66" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" s="6" t="s">
+      <c r="D66" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="11">
+        <v>66</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C67" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="11">
-        <v>65</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D67" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="11">
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="20" t="s">
-        <v>140</v>
+      <c r="B69" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="11">
         <v>69</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="11">
+        <v>70</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C72" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" s="22" t="s">
+      <c r="D72" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="11">
+        <v>72</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="23" t="s">
+      <c r="C73" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="11">
-        <v>71</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D73" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="11">
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="11">
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="11">
+        <v>76</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C78" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" s="6" t="s">
+      <c r="D78" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="11">
+        <v>78</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C79" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="11">
-        <v>77</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C78" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D79" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="11">
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C80" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="11">
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="11">
+        <v>82</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C84" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" s="6" t="s">
+      <c r="D84" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="11">
+        <v>84</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C85" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="11">
-        <v>83</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C85" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D85" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="11">
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="11">
         <v>87</v>
       </c>
-      <c r="B88" s="20" t="s">
+      <c r="B88" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="11">
+        <v>88</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="C90" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89" s="20" t="s">
+      <c r="D90" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="11">
+        <v>90</v>
+      </c>
+      <c r="B91" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="C91" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D89" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="11">
-        <v>89</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="C91" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D91" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="11">
         <v>91</v>
       </c>
-      <c r="B92" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="C92" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B92" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C92" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="11">
         <v>93</v>
       </c>
       <c r="B94" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="11">
+        <v>94</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="C96" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95" s="20" t="s">
+      <c r="D96" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="11">
+        <v>96</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C95" s="20" t="s">
+      <c r="C97" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D95" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="11">
-        <v>95</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D97" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="11">
         <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="11">
         <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="11">
+        <v>100</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C102" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="D100" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101" s="20" t="s">
+      <c r="D102" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="11">
+        <v>102</v>
+      </c>
+      <c r="B103" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="C101" s="20" t="s">
+      <c r="C103" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="D101" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="11">
-        <v>101</v>
-      </c>
-      <c r="B102" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C103" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D103" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="11">
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="11">
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B107" s="5"/>
-      <c r="D107" s="5"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+      <c r="C106" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="11">
+        <v>106</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B108" s="5"/>
       <c r="D108" s="5"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B109" s="5"/>
-      <c r="D109" s="4"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D109" s="5"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B110" s="5"/>
-      <c r="D110" s="5"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D110" s="4"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B111" s="5"/>
       <c r="D111" s="5"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B112" s="5"/>
-      <c r="D112" s="4"/>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D112" s="5"/>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B113" s="5"/>
       <c r="D113" s="4"/>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B114" s="5"/>
-      <c r="D114" s="5"/>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D114" s="4"/>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B115" s="5"/>
-      <c r="D115" s="4"/>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D115" s="5"/>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B116" s="5"/>
       <c r="D116" s="4"/>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B117" s="5"/>
       <c r="D117" s="4"/>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B118" s="5"/>
       <c r="D118" s="4"/>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B119" s="5"/>
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B120" s="6"/>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B120" s="5"/>
       <c r="D120" s="4"/>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B121" s="5"/>
-      <c r="D121" s="5"/>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B121" s="6"/>
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B122" s="5"/>
       <c r="D122" s="5"/>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B123" s="5"/>
-      <c r="D123" s="4"/>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D123" s="5"/>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B124" s="5"/>
-      <c r="D124" s="5"/>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D124" s="4"/>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B125" s="5"/>
       <c r="D125" s="5"/>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B126" s="4"/>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B126" s="5"/>
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B127" s="4"/>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B128" s="5"/>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B128" s="4"/>
       <c r="D128" s="5"/>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B129" s="5"/>
       <c r="D129" s="5"/>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B130" s="5"/>
       <c r="D130" s="5"/>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B131" s="5"/>
       <c r="D131" s="5"/>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B132" s="5"/>
       <c r="D132" s="5"/>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B133" s="5"/>
       <c r="D133" s="5"/>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B134" s="6"/>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B134" s="5"/>
       <c r="D134" s="5"/>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B135" s="6"/>
       <c r="D135" s="5"/>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B136" s="6"/>
       <c r="D136" s="5"/>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B137" s="5"/>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B137" s="6"/>
       <c r="D137" s="5"/>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B138" s="5"/>
       <c r="D138" s="5"/>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B139" s="5"/>
       <c r="D139" s="5"/>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B140" s="5"/>
       <c r="D140" s="5"/>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B141" s="5"/>
       <c r="D141" s="5"/>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B142" s="5"/>
       <c r="D142" s="5"/>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B143" s="5"/>
       <c r="D143" s="5"/>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B144" s="6"/>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B144" s="5"/>
       <c r="D144" s="5"/>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B145" s="6"/>
       <c r="D145" s="5"/>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B146" s="5"/>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B146" s="6"/>
       <c r="D146" s="5"/>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B147" s="5"/>
       <c r="D147" s="5"/>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B148" s="5"/>
       <c r="D148" s="5"/>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B149" s="5"/>
       <c r="D149" s="5"/>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B150" s="6"/>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B150" s="5"/>
       <c r="D150" s="5"/>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B151" s="6"/>
       <c r="D151" s="5"/>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B152" s="5"/>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B152" s="6"/>
       <c r="D152" s="5"/>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B153" s="4"/>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B153" s="5"/>
       <c r="D153" s="5"/>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B154" s="6"/>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B154" s="4"/>
       <c r="D154" s="5"/>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B155" s="5"/>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B155" s="6"/>
       <c r="D155" s="5"/>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B156" s="5"/>
       <c r="D156" s="5"/>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B157" s="5"/>
       <c r="D157" s="5"/>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B158" s="5"/>
       <c r="D158" s="5"/>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B159" s="5"/>
       <c r="D159" s="5"/>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B160" s="5"/>
       <c r="D160" s="5"/>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B161" s="5"/>
       <c r="D161" s="5"/>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B162" s="5"/>
       <c r="D162" s="5"/>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B163" s="5"/>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B164" s="5"/>
       <c r="D164" s="5"/>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B165" s="5"/>
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B166" s="5"/>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B167" s="5"/>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B168" s="5"/>
       <c r="D168" s="5"/>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B169" s="5"/>
       <c r="D169" s="5"/>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B170" s="5"/>
       <c r="D170" s="5"/>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B171" s="5"/>
       <c r="D171" s="5"/>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B172" s="5"/>
       <c r="D172" s="5"/>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B173" s="5"/>
       <c r="D173" s="5"/>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B174" s="5"/>
       <c r="D174" s="5"/>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B175" s="5"/>
       <c r="D175" s="5"/>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B176" s="5"/>
       <c r="D176" s="5"/>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B177" s="5"/>
       <c r="D177" s="5"/>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B178" s="5"/>
       <c r="D178" s="5"/>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B179" s="5"/>
       <c r="D179" s="5"/>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B180" s="5"/>
       <c r="D180" s="5"/>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B181" s="5"/>
       <c r="D181" s="5"/>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B182" s="5"/>
       <c r="D182" s="5"/>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B183" s="5"/>
       <c r="D183" s="5"/>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B184" s="5"/>
       <c r="D184" s="5"/>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B185" s="5"/>
       <c r="D185" s="5"/>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B186" s="5"/>
       <c r="D186" s="5"/>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B187" s="5"/>
       <c r="D187" s="5"/>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B188" s="5"/>
       <c r="D188" s="5"/>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B189" s="5"/>
       <c r="D189" s="5"/>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B190" s="5"/>
       <c r="D190" s="5"/>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B191" s="5"/>
       <c r="D191" s="5"/>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B192" s="5"/>
       <c r="D192" s="5"/>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B193" s="5"/>
       <c r="D193" s="5"/>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B194" s="5"/>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B195" s="5"/>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B196" s="5"/>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B197" s="5"/>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B198" s="5"/>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B199" s="5"/>
       <c r="D199" s="5"/>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B200" s="5"/>
       <c r="D200" s="5"/>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B201" s="5"/>
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B202" s="5"/>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B203" s="5"/>
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B204" s="5"/>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B205" s="5"/>
       <c r="D205" s="5"/>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B206" s="5"/>
       <c r="D206" s="5"/>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B207" s="5"/>
       <c r="D207" s="5"/>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B208" s="5"/>
       <c r="D208" s="5"/>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B209" s="5"/>
       <c r="D209" s="5"/>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B210" s="5"/>
       <c r="D210" s="5"/>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B211" s="5"/>
       <c r="D211" s="5"/>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B212" s="5"/>
       <c r="D212" s="5"/>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B213" s="5"/>
       <c r="D213" s="5"/>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B214" s="5"/>
       <c r="D214" s="5"/>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B215" s="5"/>
       <c r="D215" s="5"/>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B216" s="5"/>
       <c r="D216" s="5"/>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B217" s="5"/>
       <c r="D217" s="5"/>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B218" s="5"/>
       <c r="D218" s="5"/>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B219" s="5"/>
       <c r="D219" s="5"/>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B220" s="5"/>
       <c r="D220" s="5"/>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B221" s="5"/>
       <c r="D221" s="5"/>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B222" s="5"/>
       <c r="D222" s="5"/>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B223" s="5"/>
       <c r="D223" s="5"/>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B224" s="5"/>
       <c r="D224" s="5"/>
     </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B225" s="5"/>
       <c r="D225" s="5"/>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B226" s="5"/>
       <c r="D226" s="5"/>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B227" s="5"/>
       <c r="D227" s="5"/>
     </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B228" s="5"/>
       <c r="D228" s="5"/>
     </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B229" s="5"/>
       <c r="D229" s="5"/>
     </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B230" s="5"/>
       <c r="D230" s="5"/>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B231" s="5"/>
       <c r="D231" s="5"/>
     </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B232" s="5"/>
       <c r="D232" s="5"/>
     </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B233" s="5"/>
       <c r="D233" s="5"/>
     </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B234" s="5"/>
       <c r="D234" s="5"/>
     </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B235" s="5"/>
       <c r="D235" s="5"/>
     </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B236" s="5"/>
       <c r="D236" s="5"/>
     </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B237" s="5"/>
       <c r="D237" s="5"/>
     </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B238" s="5"/>
       <c r="D238" s="5"/>
     </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B239" s="5"/>
       <c r="D239" s="5"/>
     </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B240" s="5"/>
       <c r="D240" s="5"/>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B241" s="5"/>
       <c r="D241" s="5"/>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B242" s="5"/>
-      <c r="D242" s="6"/>
-    </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D242" s="5"/>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B243" s="5"/>
       <c r="D243" s="6"/>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B244" s="5"/>
       <c r="D244" s="6"/>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B245" s="5"/>
       <c r="D245" s="6"/>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B246" s="5"/>
       <c r="D246" s="6"/>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B247" s="5"/>
       <c r="D247" s="6"/>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B248" s="5"/>
       <c r="D248" s="6"/>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B249" s="5"/>
       <c r="D249" s="6"/>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B250" s="5"/>
       <c r="D250" s="6"/>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B251" s="5"/>
       <c r="D251" s="6"/>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B252" s="5"/>
       <c r="D252" s="6"/>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B253" s="5"/>
       <c r="D253" s="6"/>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D254" s="6"/>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D255" s="6"/>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D256" s="6"/>
     </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D257" s="6"/>
     </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D258" s="6"/>
     </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D259" s="6"/>
     </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D260" s="6"/>
     </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D261" s="6"/>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D262" s="6"/>
     </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D263" s="6"/>
     </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D264" s="6"/>
     </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D265" s="6"/>
     </row>
-    <row r="266" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D266" s="6"/>
     </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D267" s="6"/>
     </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D268" s="6"/>
     </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D269" s="6"/>
     </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D270" s="6"/>
     </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D271" s="6"/>
     </row>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D272" s="6"/>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D273" s="6"/>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D274" s="6"/>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D275" s="6"/>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D276" s="6"/>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D277" s="6"/>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D278" s="6"/>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D279" s="6"/>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D280" s="6"/>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D281" s="6"/>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D282" s="6"/>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D283" s="6"/>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D284" s="6"/>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D285" s="6"/>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D286" s="6"/>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D287" s="6"/>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D288" s="6"/>
     </row>
-    <row r="289" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D289" s="6"/>
     </row>
-    <row r="290" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D290" s="6"/>
     </row>
-    <row r="291" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D291" s="6"/>
     </row>
-    <row r="292" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D292" s="6"/>
     </row>
-    <row r="293" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D293" s="6"/>
     </row>
-    <row r="294" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D294" s="6"/>
     </row>
-    <row r="295" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D295" s="6"/>
     </row>
-    <row r="296" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D296" s="6"/>
     </row>
-    <row r="297" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D297" s="6"/>
     </row>
-    <row r="298" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D298" s="6"/>
     </row>
-    <row r="299" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D299" s="6"/>
     </row>
-    <row r="300" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D300" s="6"/>
     </row>
-    <row r="301" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D301" s="6"/>
     </row>
-    <row r="302" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D302" s="6"/>
     </row>
-    <row r="303" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D303" s="6"/>
     </row>
-    <row r="304" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D304" s="6"/>
     </row>
-    <row r="305" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D305" s="6"/>
     </row>
-    <row r="306" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D306" s="6"/>
     </row>
-    <row r="307" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D307" s="6"/>
     </row>
-    <row r="308" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D308" s="6"/>
     </row>
-    <row r="309" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D309" s="6"/>
     </row>
-    <row r="310" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D310" s="6"/>
     </row>
-    <row r="311" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D311" s="6"/>
     </row>
-    <row r="312" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D312" s="6"/>
     </row>
-    <row r="313" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D313" s="6"/>
+    </row>
+    <row r="314" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D314" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A2:D95">
@@ -3538,23 +3557,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2A9C4F-4DB8-4E79-A3FD-0B1BDC762B9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D279"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="35.08984375" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
@@ -3563,10 +3582,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -3574,10 +3593,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -3585,10 +3604,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -3596,10 +3615,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -3607,10 +3626,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3618,10 +3637,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -3629,10 +3648,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -3640,10 +3659,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -3651,10 +3670,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -3662,10 +3681,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -3673,10 +3692,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
@@ -3684,10 +3703,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -3695,10 +3714,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
@@ -3706,10 +3725,10 @@
         <v>0</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
@@ -3717,10 +3736,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -3728,10 +3747,10 @@
         <v>0</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
@@ -3739,10 +3758,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
@@ -3750,10 +3769,10 @@
         <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>32</v>
       </c>
@@ -3761,10 +3780,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>40</v>
       </c>
@@ -3772,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
@@ -3783,10 +3802,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
@@ -3794,10 +3813,10 @@
         <v>0</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>42</v>
       </c>
@@ -3805,10 +3824,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>46</v>
       </c>
@@ -3816,10 +3835,10 @@
         <v>0</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>46</v>
       </c>
@@ -3827,10 +3846,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>50</v>
       </c>
@@ -3838,10 +3857,10 @@
         <v>0</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>50</v>
       </c>
@@ -3849,10 +3868,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>52</v>
       </c>
@@ -3860,10 +3879,10 @@
         <v>0</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>52</v>
       </c>
@@ -3871,10 +3890,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>54</v>
       </c>
@@ -3882,10 +3901,10 @@
         <v>0</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>54</v>
       </c>
@@ -3893,10 +3912,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>58</v>
       </c>
@@ -3904,10 +3923,10 @@
         <v>0</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>58</v>
       </c>
@@ -3915,10 +3934,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>62</v>
       </c>
@@ -3926,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>62</v>
       </c>
@@ -3937,10 +3956,10 @@
         <v>1</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>64</v>
       </c>
@@ -3948,10 +3967,10 @@
         <v>0</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>64</v>
       </c>
@@ -3959,10 +3978,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
         <v>13</v>
       </c>
@@ -3970,10 +3989,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>13</v>
       </c>
@@ -3981,10 +4000,10 @@
         <v>2</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
         <v>13</v>
       </c>
@@ -3992,10 +4011,10 @@
         <v>3</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
         <v>13</v>
       </c>
@@ -4003,10 +4022,10 @@
         <v>4</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>13</v>
       </c>
@@ -4014,10 +4033,10 @@
         <v>5</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
         <v>13</v>
       </c>
@@ -4025,10 +4044,10 @@
         <v>6</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
         <v>13</v>
       </c>
@@ -4036,10 +4055,10 @@
         <v>7</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
         <v>34</v>
       </c>
@@ -4047,10 +4066,10 @@
         <v>0</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
         <v>34</v>
       </c>
@@ -4058,10 +4077,10 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
         <v>36</v>
       </c>
@@ -4069,10 +4088,10 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
         <v>36</v>
       </c>
@@ -4080,10 +4099,10 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
         <v>38</v>
       </c>
@@ -4091,10 +4110,10 @@
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
         <v>38</v>
       </c>
@@ -4102,694 +4121,694 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="8"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="8"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="8"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="8"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="8"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="8"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="8"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="8"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="8"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="8"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="8"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="8"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="8"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="8"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="8"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="7"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="8"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="7"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="7"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="7"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="8"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="7"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="7"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="8"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="7"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="7"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="7"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="8"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="7"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="7"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="8"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="7"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="7"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="7"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="8"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="7"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="7"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="7"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="8"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="7"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="7"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="7"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="7"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="7"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="7"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="7"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="7"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="8"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="8"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="8"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="8"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="8"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="8"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="8"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="7"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="8"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="8"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="7"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="7"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="7"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="7"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="8"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="8"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="8"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="8"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="8"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="8"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="8"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" s="8"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="8"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="8"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="8"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" s="7"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" s="8"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" s="7"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="7"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="8"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" s="7"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" s="8"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" s="8"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" s="8"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" s="8"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" s="8"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="8"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" s="8"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" s="8"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" s="7"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" s="8"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" s="8"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" s="7"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" s="8"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" s="7"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" s="7"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" s="7"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" s="8"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" s="8"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" s="8"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" s="8"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" s="8"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" s="7"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" s="8"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" s="8"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" s="8"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" s="8"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" s="8"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" s="8"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" s="8"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" s="8"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" s="8"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" s="8"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" s="8"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" s="8"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" s="8"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" s="8"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" s="8"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" s="8"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" s="8"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" s="8"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" s="8"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" s="8"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" s="8"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180" s="7"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" s="8"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" s="7"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183" s="8"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184" s="7"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185" s="8"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186" s="8"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187" s="8"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188" s="7"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189" s="7"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190" s="7"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191" s="7"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192" s="7"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193" s="6"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194" s="6"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195" s="6"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196" s="6"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197" s="6"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198" s="6"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199" s="6"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200" s="6"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201" s="6"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A202" s="6"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A203" s="6"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A204" s="6"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A205" s="6"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A206" s="6"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A207" s="6"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A208" s="6"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A209" s="6"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A210" s="6"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A211" s="6"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A212" s="6"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A213" s="6"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A214" s="6"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A215" s="6"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A216" s="6"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A217" s="6"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A218" s="6"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A219" s="6"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A220" s="6"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A221" s="6"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A222" s="6"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A223" s="6"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A224" s="6"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225" s="6"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226" s="6"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227" s="6"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228" s="6"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229" s="6"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230" s="6"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A231" s="6"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A232" s="6"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A233" s="6"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A234" s="6"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A235" s="6"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A236" s="6"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A237" s="6"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A238" s="6"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A239" s="6"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A240" s="6"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A241" s="6"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A242" s="6"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A243" s="6"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A244" s="6"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A245" s="6"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A246" s="6"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A247" s="6"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A248" s="6"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A249" s="6"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A250" s="6"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A251" s="6"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A252" s="6"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A253" s="6"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A254" s="6"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A255" s="6"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A256" s="6"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A257" s="6"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A258" s="6"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A259" s="6"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A260" s="6"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A261" s="6"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A262" s="6"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A263" s="6"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A264" s="6"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A265" s="6"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A266" s="6"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A267" s="6"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A268" s="6"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A269" s="6"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A270" s="6"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A271" s="6"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A272" s="6"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A273" s="6"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A274" s="6"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A275" s="6"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A276" s="6"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A277" s="6"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A278" s="6"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A279" s="6"/>
     </row>
   </sheetData>
@@ -4799,6 +4818,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -5039,18 +5070,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5061,6 +5080,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C5FC19-F4BC-4ACD-86FC-72730E460845}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72C16DF1-BB06-4A20-A541-CB814E271E24}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5079,23 +5115,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C5FC19-F4BC-4ACD-86FC-72730E460845}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDB1557E-B519-46C1-8C0E-CA7CA5BBAB79}">
   <ds:schemaRefs>

--- a/rmonize/data_dictionary/DD_KORA_S1_P2.xlsx
+++ b/rmonize/data_dictionary/DD_KORA_S1_P2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="242">
   <si>
     <t>index</t>
   </si>
@@ -748,6 +748,9 @@
   </si>
   <si>
     <t>akdisa</t>
+  </si>
+  <si>
+    <t>I don't know</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+    <sheetView topLeftCell="A87" workbookViewId="0">
       <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
@@ -3558,10 +3561,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D279"/>
+  <dimension ref="A1:D281"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4082,13 +4085,13 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B47" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -4096,51 +4099,75 @@
         <v>36</v>
       </c>
       <c r="B48" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B49" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="10">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B51" s="10">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="10">
         <v>1</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C52" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="8"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="7"/>
-    </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="7"/>
+      <c r="A53" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="10">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="8"/>
+      <c r="A54" s="7"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="8"/>
+      <c r="A55" s="7"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="7"/>
+      <c r="A56" s="8"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="8"/>
@@ -4152,7 +4179,7 @@
       <c r="A59" s="8"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="8"/>
+      <c r="A60" s="7"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="8"/>
@@ -4173,22 +4200,22 @@
       <c r="A66" s="8"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" s="7"/>
+      <c r="A67" s="8"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="8"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" s="8"/>
+      <c r="A69" s="7"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="7"/>
+      <c r="A70" s="8"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" s="7"/>
+      <c r="A71" s="8"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" s="8"/>
+      <c r="A72" s="7"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="7"/>
@@ -4200,76 +4227,76 @@
       <c r="A75" s="7"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" s="7"/>
+      <c r="A76" s="8"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="7"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" s="8"/>
+      <c r="A78" s="7"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="7"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" s="7"/>
+      <c r="A80" s="8"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="8"/>
+      <c r="A81" s="7"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="7"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="7"/>
+      <c r="A83" s="8"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="7"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" s="8"/>
+      <c r="A85" s="7"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="7"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" s="7"/>
+      <c r="A87" s="8"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="7"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" s="8"/>
+      <c r="A89" s="7"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="7"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" s="7"/>
+      <c r="A91" s="8"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="7"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" s="8"/>
+      <c r="A93" s="7"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="7"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" s="7"/>
+      <c r="A95" s="8"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="7"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="8"/>
+      <c r="A97" s="7"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="7"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" s="7"/>
+      <c r="A99" s="8"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="7"/>
@@ -4290,10 +4317,10 @@
       <c r="A105" s="7"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" s="8"/>
+      <c r="A106" s="7"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" s="8"/>
+      <c r="A107" s="7"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="8"/>
@@ -4311,19 +4338,19 @@
       <c r="A112" s="8"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" s="7"/>
+      <c r="A113" s="8"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="8"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" s="8"/>
+      <c r="A115" s="7"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" s="7"/>
+      <c r="A116" s="8"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" s="7"/>
+      <c r="A117" s="8"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="7"/>
@@ -4332,10 +4359,10 @@
       <c r="A119" s="7"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" s="8"/>
+      <c r="A120" s="7"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" s="8"/>
+      <c r="A121" s="7"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="8"/>
@@ -4365,7 +4392,7 @@
       <c r="A130" s="8"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" s="7"/>
+      <c r="A131" s="8"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" s="8"/>
@@ -4374,10 +4401,10 @@
       <c r="A133" s="7"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" s="7"/>
+      <c r="A134" s="8"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" s="8"/>
+      <c r="A135" s="7"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" s="7"/>
@@ -4386,7 +4413,7 @@
       <c r="A137" s="8"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" s="8"/>
+      <c r="A138" s="7"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" s="8"/>
@@ -4407,16 +4434,16 @@
       <c r="A144" s="8"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" s="7"/>
+      <c r="A145" s="8"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" s="8"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" s="8"/>
+      <c r="A147" s="7"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A148" s="7"/>
+      <c r="A148" s="8"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" s="8"/>
@@ -4425,16 +4452,16 @@
       <c r="A150" s="7"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" s="7"/>
+      <c r="A151" s="8"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" s="7"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A153" s="8"/>
+      <c r="A153" s="7"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A154" s="8"/>
+      <c r="A154" s="7"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" s="8"/>
@@ -4446,13 +4473,13 @@
       <c r="A157" s="8"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A158" s="7"/>
+      <c r="A158" s="8"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" s="8"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A160" s="8"/>
+      <c r="A160" s="7"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" s="8"/>
@@ -4512,7 +4539,7 @@
       <c r="A179" s="8"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A180" s="7"/>
+      <c r="A180" s="8"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" s="8"/>
@@ -4530,16 +4557,16 @@
       <c r="A185" s="8"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A186" s="8"/>
+      <c r="A186" s="7"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187" s="8"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A188" s="7"/>
+      <c r="A188" s="8"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A189" s="7"/>
+      <c r="A189" s="8"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190" s="7"/>
@@ -4551,10 +4578,10 @@
       <c r="A192" s="7"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A193" s="6"/>
+      <c r="A193" s="7"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A194" s="6"/>
+      <c r="A194" s="7"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195" s="6"/>
@@ -4810,6 +4837,12 @@
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A279" s="6"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A280" s="6"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A281" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4818,18 +4851,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -5070,6 +5091,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5080,23 +5113,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C5FC19-F4BC-4ACD-86FC-72730E460845}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72C16DF1-BB06-4A20-A541-CB814E271E24}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5115,6 +5131,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C5FC19-F4BC-4ACD-86FC-72730E460845}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDB1557E-B519-46C1-8C0E-CA7CA5BBAB79}">
   <ds:schemaRefs>

--- a/rmonize/data_dictionary/DD_KORA_S1_P2.xlsx
+++ b/rmonize/data_dictionary/DD_KORA_S1_P2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perrar\Documents\Perrar\NFDI4Health\TA5_1\use-cases-harmonisation\rmonize\data_dictionary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933E7271-EA27-4DB4-B72A-BBC70585EFC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14030" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="241">
   <si>
     <t>index</t>
   </si>
@@ -666,9 +667,6 @@
     <t>AV131</t>
   </si>
   <si>
-    <t>all kinds of minced meat</t>
-  </si>
-  <si>
     <t>variable</t>
   </si>
   <si>
@@ -678,9 +676,6 @@
     <t>male</t>
   </si>
   <si>
-    <t>female</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -751,12 +746,15 @@
   </si>
   <si>
     <t>I don't know</t>
+  </si>
+  <si>
+    <t>Minced meat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -934,7 +932,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1245,21 +1243,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J314"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.54296875" customWidth="1"/>
-    <col min="3" max="3" width="34.54296875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1275,7 +1273,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1289,7 +1287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1303,7 +1301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1317,7 +1315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1331,7 +1329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1346,7 +1344,7 @@
       </c>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1361,7 +1359,7 @@
       </c>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1376,7 +1374,7 @@
       </c>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1390,7 +1388,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1404,7 +1402,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1418,7 +1416,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1432,7 +1430,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1446,7 +1444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1460,7 +1458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1474,7 +1472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -1488,7 +1486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1502,7 +1500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -1516,7 +1514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1530,7 +1528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -1544,7 +1542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1558,7 +1556,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -1572,7 +1570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1592,7 +1590,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -1606,7 +1604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1620,7 +1618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -1634,7 +1632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1653,7 +1651,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -1672,7 +1670,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1691,7 +1689,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -1705,7 +1703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1719,7 +1717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -1733,7 +1731,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1747,7 +1745,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -1761,7 +1759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1775,7 +1773,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -1789,7 +1787,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1803,7 +1801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -1817,7 +1815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1831,7 +1829,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -1845,35 +1843,35 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -1887,7 +1885,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -1901,7 +1899,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1915,7 +1913,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -1929,7 +1927,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -1943,7 +1941,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1957,7 +1955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -1971,7 +1969,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -1985,7 +1983,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1999,7 +1997,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -2013,7 +2011,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -2027,7 +2025,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2041,7 +2039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -2055,7 +2053,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -2069,7 +2067,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2083,7 +2081,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>57</v>
       </c>
@@ -2097,7 +2095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>58</v>
       </c>
@@ -2111,7 +2109,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2125,7 +2123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>60</v>
       </c>
@@ -2139,7 +2137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>61</v>
       </c>
@@ -2153,7 +2151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2167,7 +2165,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>63</v>
       </c>
@@ -2181,7 +2179,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>64</v>
       </c>
@@ -2195,7 +2193,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2209,7 +2207,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>66</v>
       </c>
@@ -2223,7 +2221,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>67</v>
       </c>
@@ -2237,7 +2235,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2251,7 +2249,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>69</v>
       </c>
@@ -2265,7 +2263,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <v>70</v>
       </c>
@@ -2279,7 +2277,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2293,7 +2291,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <v>72</v>
       </c>
@@ -2307,7 +2305,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
         <v>73</v>
       </c>
@@ -2321,7 +2319,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2335,7 +2333,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
         <v>75</v>
       </c>
@@ -2349,7 +2347,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <v>76</v>
       </c>
@@ -2363,7 +2361,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2377,7 +2375,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
         <v>78</v>
       </c>
@@ -2391,7 +2389,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
         <v>79</v>
       </c>
@@ -2405,7 +2403,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2419,7 +2417,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
         <v>81</v>
       </c>
@@ -2433,7 +2431,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="11">
         <v>82</v>
       </c>
@@ -2447,7 +2445,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2461,7 +2459,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
         <v>84</v>
       </c>
@@ -2475,7 +2473,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="11">
         <v>85</v>
       </c>
@@ -2489,7 +2487,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2503,7 +2501,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
         <v>87</v>
       </c>
@@ -2517,7 +2515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="11">
         <v>88</v>
       </c>
@@ -2531,7 +2529,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2545,7 +2543,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="11">
         <v>90</v>
       </c>
@@ -2559,7 +2557,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="11">
         <v>91</v>
       </c>
@@ -2573,7 +2571,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2587,7 +2585,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="11">
         <v>93</v>
       </c>
@@ -2601,7 +2599,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="11">
         <v>94</v>
       </c>
@@ -2615,7 +2613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2629,7 +2627,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="11">
         <v>96</v>
       </c>
@@ -2643,7 +2641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="11">
         <v>97</v>
       </c>
@@ -2657,7 +2655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2671,7 +2669,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="11">
         <v>99</v>
       </c>
@@ -2685,7 +2683,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="11">
         <v>100</v>
       </c>
@@ -2699,7 +2697,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2713,7 +2711,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="11">
         <v>102</v>
       </c>
@@ -2727,7 +2725,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="11">
         <v>103</v>
       </c>
@@ -2741,7 +2739,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2755,7 +2753,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="11">
         <v>105</v>
       </c>
@@ -2769,7 +2767,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="11">
         <v>106</v>
       </c>
@@ -2777,777 +2775,777 @@
         <v>212</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B108" s="5"/>
       <c r="D108" s="5"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B109" s="5"/>
       <c r="D109" s="5"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B110" s="5"/>
       <c r="D110" s="4"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B111" s="5"/>
       <c r="D111" s="5"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B112" s="5"/>
       <c r="D112" s="5"/>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="5"/>
       <c r="D113" s="4"/>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="5"/>
       <c r="D114" s="4"/>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="5"/>
       <c r="D115" s="5"/>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="5"/>
       <c r="D116" s="4"/>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" s="5"/>
       <c r="D117" s="4"/>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" s="5"/>
       <c r="D118" s="4"/>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" s="5"/>
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" s="5"/>
       <c r="D120" s="4"/>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" s="6"/>
       <c r="D121" s="4"/>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" s="5"/>
       <c r="D122" s="5"/>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" s="5"/>
       <c r="D123" s="5"/>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" s="5"/>
       <c r="D124" s="4"/>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" s="5"/>
       <c r="D125" s="5"/>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" s="5"/>
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" s="4"/>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" s="4"/>
       <c r="D128" s="5"/>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" s="5"/>
       <c r="D129" s="5"/>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" s="5"/>
       <c r="D130" s="5"/>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" s="5"/>
       <c r="D131" s="5"/>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" s="5"/>
       <c r="D132" s="5"/>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" s="5"/>
       <c r="D133" s="5"/>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" s="5"/>
       <c r="D134" s="5"/>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" s="6"/>
       <c r="D135" s="5"/>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" s="6"/>
       <c r="D136" s="5"/>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" s="6"/>
       <c r="D137" s="5"/>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" s="5"/>
       <c r="D138" s="5"/>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" s="5"/>
       <c r="D139" s="5"/>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" s="5"/>
       <c r="D140" s="5"/>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" s="5"/>
       <c r="D141" s="5"/>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" s="5"/>
       <c r="D142" s="5"/>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" s="5"/>
       <c r="D143" s="5"/>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" s="5"/>
       <c r="D144" s="5"/>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" s="6"/>
       <c r="D145" s="5"/>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" s="6"/>
       <c r="D146" s="5"/>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" s="5"/>
       <c r="D147" s="5"/>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" s="5"/>
       <c r="D148" s="5"/>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" s="5"/>
       <c r="D149" s="5"/>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" s="5"/>
       <c r="D150" s="5"/>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" s="6"/>
       <c r="D151" s="5"/>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B152" s="6"/>
       <c r="D152" s="5"/>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B153" s="5"/>
       <c r="D153" s="5"/>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B154" s="4"/>
       <c r="D154" s="5"/>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B155" s="6"/>
       <c r="D155" s="5"/>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B156" s="5"/>
       <c r="D156" s="5"/>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B157" s="5"/>
       <c r="D157" s="5"/>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B158" s="5"/>
       <c r="D158" s="5"/>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B159" s="5"/>
       <c r="D159" s="5"/>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" s="5"/>
       <c r="D160" s="5"/>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" s="5"/>
       <c r="D161" s="5"/>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" s="5"/>
       <c r="D162" s="5"/>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" s="5"/>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" s="5"/>
       <c r="D164" s="5"/>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" s="5"/>
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" s="5"/>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" s="5"/>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B168" s="5"/>
       <c r="D168" s="5"/>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B169" s="5"/>
       <c r="D169" s="5"/>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B170" s="5"/>
       <c r="D170" s="5"/>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" s="5"/>
       <c r="D171" s="5"/>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B172" s="5"/>
       <c r="D172" s="5"/>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" s="5"/>
       <c r="D173" s="5"/>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174" s="5"/>
       <c r="D174" s="5"/>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" s="5"/>
       <c r="D175" s="5"/>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" s="5"/>
       <c r="D176" s="5"/>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" s="5"/>
       <c r="D177" s="5"/>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B178" s="5"/>
       <c r="D178" s="5"/>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B179" s="5"/>
       <c r="D179" s="5"/>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B180" s="5"/>
       <c r="D180" s="5"/>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B181" s="5"/>
       <c r="D181" s="5"/>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" s="5"/>
       <c r="D182" s="5"/>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B183" s="5"/>
       <c r="D183" s="5"/>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B184" s="5"/>
       <c r="D184" s="5"/>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B185" s="5"/>
       <c r="D185" s="5"/>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B186" s="5"/>
       <c r="D186" s="5"/>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B187" s="5"/>
       <c r="D187" s="5"/>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B188" s="5"/>
       <c r="D188" s="5"/>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B189" s="5"/>
       <c r="D189" s="5"/>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B190" s="5"/>
       <c r="D190" s="5"/>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B191" s="5"/>
       <c r="D191" s="5"/>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B192" s="5"/>
       <c r="D192" s="5"/>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B193" s="5"/>
       <c r="D193" s="5"/>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B194" s="5"/>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B195" s="5"/>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B196" s="5"/>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B197" s="5"/>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B198" s="5"/>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B199" s="5"/>
       <c r="D199" s="5"/>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B200" s="5"/>
       <c r="D200" s="5"/>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B201" s="5"/>
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B202" s="5"/>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B203" s="5"/>
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B204" s="5"/>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B205" s="5"/>
       <c r="D205" s="5"/>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B206" s="5"/>
       <c r="D206" s="5"/>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B207" s="5"/>
       <c r="D207" s="5"/>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B208" s="5"/>
       <c r="D208" s="5"/>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B209" s="5"/>
       <c r="D209" s="5"/>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B210" s="5"/>
       <c r="D210" s="5"/>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B211" s="5"/>
       <c r="D211" s="5"/>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B212" s="5"/>
       <c r="D212" s="5"/>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B213" s="5"/>
       <c r="D213" s="5"/>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B214" s="5"/>
       <c r="D214" s="5"/>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B215" s="5"/>
       <c r="D215" s="5"/>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B216" s="5"/>
       <c r="D216" s="5"/>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B217" s="5"/>
       <c r="D217" s="5"/>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B218" s="5"/>
       <c r="D218" s="5"/>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B219" s="5"/>
       <c r="D219" s="5"/>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B220" s="5"/>
       <c r="D220" s="5"/>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B221" s="5"/>
       <c r="D221" s="5"/>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B222" s="5"/>
       <c r="D222" s="5"/>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B223" s="5"/>
       <c r="D223" s="5"/>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B224" s="5"/>
       <c r="D224" s="5"/>
     </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B225" s="5"/>
       <c r="D225" s="5"/>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B226" s="5"/>
       <c r="D226" s="5"/>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B227" s="5"/>
       <c r="D227" s="5"/>
     </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B228" s="5"/>
       <c r="D228" s="5"/>
     </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B229" s="5"/>
       <c r="D229" s="5"/>
     </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B230" s="5"/>
       <c r="D230" s="5"/>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B231" s="5"/>
       <c r="D231" s="5"/>
     </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B232" s="5"/>
       <c r="D232" s="5"/>
     </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B233" s="5"/>
       <c r="D233" s="5"/>
     </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B234" s="5"/>
       <c r="D234" s="5"/>
     </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B235" s="5"/>
       <c r="D235" s="5"/>
     </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B236" s="5"/>
       <c r="D236" s="5"/>
     </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B237" s="5"/>
       <c r="D237" s="5"/>
     </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B238" s="5"/>
       <c r="D238" s="5"/>
     </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B239" s="5"/>
       <c r="D239" s="5"/>
     </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B240" s="5"/>
       <c r="D240" s="5"/>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B241" s="5"/>
       <c r="D241" s="5"/>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B242" s="5"/>
       <c r="D242" s="5"/>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B243" s="5"/>
       <c r="D243" s="6"/>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B244" s="5"/>
       <c r="D244" s="6"/>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B245" s="5"/>
       <c r="D245" s="6"/>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B246" s="5"/>
       <c r="D246" s="6"/>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B247" s="5"/>
       <c r="D247" s="6"/>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B248" s="5"/>
       <c r="D248" s="6"/>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B249" s="5"/>
       <c r="D249" s="6"/>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B250" s="5"/>
       <c r="D250" s="6"/>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B251" s="5"/>
       <c r="D251" s="6"/>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B252" s="5"/>
       <c r="D252" s="6"/>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B253" s="5"/>
       <c r="D253" s="6"/>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D254" s="6"/>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D255" s="6"/>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D256" s="6"/>
     </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D257" s="6"/>
     </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D258" s="6"/>
     </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D259" s="6"/>
     </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D260" s="6"/>
     </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D261" s="6"/>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D262" s="6"/>
     </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D263" s="6"/>
     </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D264" s="6"/>
     </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D265" s="6"/>
     </row>
-    <row r="266" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D266" s="6"/>
     </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D267" s="6"/>
     </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D268" s="6"/>
     </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D269" s="6"/>
     </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D270" s="6"/>
     </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D271" s="6"/>
     </row>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D272" s="6"/>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D273" s="6"/>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D274" s="6"/>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D275" s="6"/>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D276" s="6"/>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D277" s="6"/>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D278" s="6"/>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D279" s="6"/>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D280" s="6"/>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D281" s="6"/>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D282" s="6"/>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D283" s="6"/>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D284" s="6"/>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D285" s="6"/>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D286" s="6"/>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D287" s="6"/>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D288" s="6"/>
     </row>
-    <row r="289" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D289" s="6"/>
     </row>
-    <row r="290" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D290" s="6"/>
     </row>
-    <row r="291" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D291" s="6"/>
     </row>
-    <row r="292" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D292" s="6"/>
     </row>
-    <row r="293" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D293" s="6"/>
     </row>
-    <row r="294" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D294" s="6"/>
     </row>
-    <row r="295" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D295" s="6"/>
     </row>
-    <row r="296" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D296" s="6"/>
     </row>
-    <row r="297" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="297" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D297" s="6"/>
     </row>
-    <row r="298" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D298" s="6"/>
     </row>
-    <row r="299" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D299" s="6"/>
     </row>
-    <row r="300" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D300" s="6"/>
     </row>
-    <row r="301" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D301" s="6"/>
     </row>
-    <row r="302" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="302" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D302" s="6"/>
     </row>
-    <row r="303" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="303" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D303" s="6"/>
     </row>
-    <row r="304" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D304" s="6"/>
     </row>
-    <row r="305" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D305" s="6"/>
     </row>
-    <row r="306" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D306" s="6"/>
     </row>
-    <row r="307" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D307" s="6"/>
     </row>
-    <row r="308" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D308" s="6"/>
     </row>
-    <row r="309" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D309" s="6"/>
     </row>
-    <row r="310" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D310" s="6"/>
     </row>
-    <row r="311" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="311" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D311" s="6"/>
     </row>
-    <row r="312" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="312" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D312" s="6"/>
     </row>
-    <row r="313" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="313" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D313" s="6"/>
     </row>
-    <row r="314" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="314" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D314" s="6"/>
     </row>
   </sheetData>
@@ -3560,23 +3558,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D281"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.08984375" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
@@ -3585,10 +3583,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -3596,1253 +3594,1242 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="10">
-        <v>5</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="10">
-        <v>4</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="10">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="10">
         <v>0</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="10">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C15" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="10">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="10">
         <v>0</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="10">
-        <v>1</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="10">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="10">
         <v>0</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="10">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C19" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="10">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="10">
         <v>0</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="10">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C21" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="10">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="10">
         <v>0</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="10">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C23" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="10">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="10">
         <v>0</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="10">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C25" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="10">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="10">
         <v>0</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="10">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C27" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="10">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="10">
         <v>0</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="10">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C29" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B30" s="10">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="10">
         <v>0</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="10">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C31" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B32" s="10">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="10">
         <v>0</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="10">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C33" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B34" s="10">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="10">
         <v>0</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="10">
-        <v>1</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C35" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B36" s="10">
-        <v>0</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="B37" s="10">
         <v>1</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C37" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="10">
-        <v>1</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B39" s="10">
-        <v>2</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B40" s="10">
-        <v>3</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B41" s="10">
-        <v>4</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B42" s="10">
-        <v>5</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B43" s="10">
-        <v>6</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B44" s="10">
-        <v>7</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B45" s="10">
-        <v>0</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B46" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B47" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B48" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B49" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B50" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B51" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B52" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B53" s="10">
-        <v>2</v>
-      </c>
-      <c r="C53" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="7"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="8"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="7"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="8"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="7"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" s="8"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" s="7"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" s="8"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" s="7"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" s="8"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" s="7"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" s="8"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="7"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="7"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" s="7"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" s="8"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="8"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="7"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="7"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="8"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="8"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="7"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" s="7"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" s="8"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="8"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" s="7"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" s="8"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="8"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="7"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" s="7"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" s="8"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="8"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="7"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" s="7"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" s="8"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="8"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="7"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" s="7"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="8"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" s="8"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" s="7"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="7"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="8"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" s="8"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="7"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" s="7"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="8"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" s="8"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" s="7"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" s="8"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="7"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="8"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="7"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" s="7"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" s="8"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" s="7"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="8"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="7"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="8"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" s="8"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" s="7"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="7"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="8"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A149" s="8"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A150" s="7"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" s="8"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="7"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="8"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="7"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A154" s="7"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="8"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A159" s="8"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A160" s="7"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="7"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="8"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="8"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="8"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="8"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="8"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="8"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="8"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="8"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="8"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="8"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="8"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="8"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="8"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="8"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="8"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="8"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="8"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="8"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="8"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="8"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A181" s="8"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A182" s="7"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A183" s="8"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A184" s="7"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A185" s="8"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A186" s="7"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="7"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="8"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="7"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="8"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="7"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="8"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="8"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="8"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A189" s="8"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="7"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="7"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="7"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="7"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="7"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A194" s="7"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="6"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="6"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="6"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="6"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="6"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="6"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="6"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="6"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="6"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="6"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="6"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="6"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="6"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="6"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="6"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="6"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="6"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="6"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="6"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="6"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="6"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="6"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="6"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="6"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="6"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="6"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="6"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="6"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="6"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="6"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="6"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="6"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="6"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="6"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="6"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="6"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="6"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="6"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="6"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="6"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="6"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="6"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="6"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="6"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="6"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="6"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="6"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="6"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="6"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="6"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="6"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="6"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="6"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="6"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="6"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="6"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="6"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="6"/>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A281" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rmonize/data_dictionary/DD_KORA_S1_P2.xlsx
+++ b/rmonize/data_dictionary/DD_KORA_S1_P2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_dictionary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933E7271-EA27-4DB4-B72A-BBC70585EFC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5601A947-7A3E-4434-83C2-488FBCEC2C65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="246">
   <si>
     <t>index</t>
   </si>
@@ -61,12 +61,6 @@
     <t>age</t>
   </si>
   <si>
-    <t>atbbild</t>
-  </si>
-  <si>
-    <t>level of education</t>
-  </si>
-  <si>
     <t>atemploy</t>
   </si>
   <si>
@@ -676,24 +670,6 @@
     <t>male</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>primary school completed</t>
-  </si>
-  <si>
-    <t>technical/professional school completed</t>
-  </si>
-  <si>
-    <t>secondary school</t>
-  </si>
-  <si>
-    <t>longer education (incl. university)</t>
-  </si>
-  <si>
-    <t>not specified</t>
-  </si>
-  <si>
     <t>never</t>
   </si>
   <si>
@@ -749,13 +725,52 @@
   </si>
   <si>
     <t>Minced meat</t>
+  </si>
+  <si>
+    <t>AI13ABSC</t>
+  </si>
+  <si>
+    <t>highest school or university degree</t>
+  </si>
+  <si>
+    <t>AI14ABSC</t>
+  </si>
+  <si>
+    <t>highest vocational degree</t>
+  </si>
+  <si>
+    <t>Hauptschule/Volksschule</t>
+  </si>
+  <si>
+    <t>Mittlere Reife/Realschule</t>
+  </si>
+  <si>
+    <t>Abitur/Fachabitur</t>
+  </si>
+  <si>
+    <t>Hochschule/Fachhochschule/Universität</t>
+  </si>
+  <si>
+    <t>sonstiger Abschluss</t>
+  </si>
+  <si>
+    <t>kein Abschluss</t>
+  </si>
+  <si>
+    <t>Berufsschule (Lehre)</t>
+  </si>
+  <si>
+    <t>Fachschule/Techniker-/Meisterschule</t>
+  </si>
+  <si>
+    <t>Ingenieur-Schule/Polytechnikum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -846,6 +861,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -867,7 +888,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -930,9 +951,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1244,13 +1266,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J314"/>
+  <dimension ref="A1:J315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.5703125" customWidth="1"/>
     <col min="3" max="3" width="34.5703125" style="11" customWidth="1"/>
@@ -1312,108 +1334,108 @@
         <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D7" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>19</v>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1421,27 +1443,27 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>6</v>
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1449,10 +1471,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>6</v>
@@ -1463,82 +1485,82 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:10" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>36</v>
+      <c r="B17" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+    <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="B20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1547,27 +1569,27 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>6</v>
+        <v>42</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1575,94 +1597,89 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+    <row r="26" spans="1:10" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>6</v>
+      <c r="D28" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1671,17 +1688,17 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="11">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>19</v>
+        <v>56</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1689,29 +1706,34 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+    <row r="30" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>6</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>6</v>
@@ -1721,14 +1743,14 @@
       <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>19</v>
+      <c r="B32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1736,13 +1758,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1750,13 +1772,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1764,139 +1786,139 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
-        <v>35</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="D37" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="4" t="s">
+      <c r="D38" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
-        <v>37</v>
-      </c>
-      <c r="B38" s="4" t="s">
+      <c r="D39" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="4" t="s">
+      <c r="D40" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
-        <v>39</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="D41" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="11">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>85</v>
+      <c r="B43" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>43</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>86</v>
+      <c r="B44" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1904,41 +1926,41 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
+      <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>19</v>
+        <v>86</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>46</v>
       </c>
-      <c r="B47" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>19</v>
+      <c r="B47" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1946,13 +1968,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>19</v>
+        <v>91</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1960,27 +1982,27 @@
         <v>48</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>19</v>
+        <v>93</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="11">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>98</v>
+      <c r="B50" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>19</v>
+        <v>95</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1988,13 +2010,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>19</v>
+        <v>97</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2002,97 +2024,97 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <v>53</v>
+      </c>
+      <c r="B54" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C54" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="11">
-        <v>52</v>
-      </c>
-      <c r="B53" s="20" t="s">
+      <c r="D54" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C55" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" s="20" t="s">
+      <c r="D55" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C56" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="11">
-        <v>54</v>
-      </c>
-      <c r="B55" s="6" t="s">
+      <c r="D56" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <v>56</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C57" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="11">
-        <v>55</v>
-      </c>
-      <c r="B56" s="6" t="s">
+      <c r="D57" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C58" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="11">
-        <v>57</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>19</v>
+      <c r="D58" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2100,41 +2122,41 @@
         <v>58</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>19</v>
+        <v>113</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>19</v>
+      <c r="B60" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="11">
+      <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>19</v>
+        <v>117</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2142,13 +2164,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>19</v>
+        <v>119</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2156,13 +2178,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>19</v>
+        <v>121</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2170,41 +2192,41 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>19</v>
+        <v>123</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="11">
+      <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>19</v>
+        <v>125</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>19</v>
+      <c r="B66" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2212,97 +2234,97 @@
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="11">
+        <v>68</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C69" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="11">
-        <v>67</v>
-      </c>
-      <c r="B68" s="6" t="s">
+      <c r="D69" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C70" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" s="6" t="s">
+      <c r="D70" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C71" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="11">
-        <v>69</v>
-      </c>
-      <c r="B70" s="20" t="s">
+      <c r="D71" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="11">
+        <v>71</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C72" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="11">
-        <v>70</v>
-      </c>
-      <c r="B71" s="6" t="s">
+      <c r="D72" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C73" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="11">
-        <v>72</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>19</v>
+      <c r="D73" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2310,13 +2332,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>19</v>
+        <v>143</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2324,27 +2346,27 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="11">
+      <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>19</v>
+        <v>147</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2352,13 +2374,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>19</v>
+        <v>149</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2366,13 +2388,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>19</v>
+        <v>150</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2380,27 +2402,27 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>19</v>
+        <v>152</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="11">
+      <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>19</v>
+        <v>154</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2408,13 +2430,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>19</v>
+        <v>156</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2422,111 +2444,111 @@
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="11">
+        <v>83</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C84" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="11">
-        <v>82</v>
-      </c>
-      <c r="B83" s="6" t="s">
+      <c r="D84" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C85" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" s="6" t="s">
+      <c r="D85" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="C86" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="11">
-        <v>84</v>
-      </c>
-      <c r="B85" s="6" t="s">
+      <c r="D86" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="11">
+        <v>86</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C87" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="11">
-        <v>85</v>
-      </c>
-      <c r="B86" s="6" t="s">
+      <c r="D87" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C88" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="11">
-        <v>87</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>19</v>
+      <c r="D88" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="11">
         <v>88</v>
       </c>
-      <c r="B89" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>19</v>
+      <c r="B89" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2534,55 +2556,55 @@
         <v>89</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>19</v>
+        <v>175</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="11">
+      <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>19</v>
+        <v>177</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="11">
         <v>91</v>
       </c>
-      <c r="B92" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="C92" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>19</v>
+      <c r="B92" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="C93" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>19</v>
+      <c r="B93" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2590,27 +2612,27 @@
         <v>93</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>19</v>
+        <v>183</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="11">
+      <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>19</v>
+        <v>185</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2618,125 +2640,125 @@
         <v>95</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>19</v>
+        <v>187</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="11">
         <v>96</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="11">
+        <v>98</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C99" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="11">
-        <v>97</v>
-      </c>
-      <c r="B98" s="6" t="s">
+      <c r="D99" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C100" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D98" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99" s="6" t="s">
+      <c r="D100" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C101" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="11">
-        <v>99</v>
-      </c>
-      <c r="B100" s="6" t="s">
+      <c r="D101" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="11">
+        <v>101</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C102" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D100" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="11">
-        <v>100</v>
-      </c>
-      <c r="B101" s="6" t="s">
+      <c r="D102" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C103" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="B102" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="11">
-        <v>102</v>
-      </c>
-      <c r="B103" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="C103" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>19</v>
+      <c r="D103" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="11">
         <v>103</v>
       </c>
-      <c r="B104" s="6" t="s">
-        <v>206</v>
+      <c r="B104" s="20" t="s">
+        <v>202</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>19</v>
+        <v>203</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2744,27 +2766,27 @@
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>19</v>
+        <v>205</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="11">
+      <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>19</v>
+        <v>207</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2772,18 +2794,28 @@
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>19</v>
+        <v>208</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B108" s="5"/>
-      <c r="D108" s="5"/>
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B109" s="5"/>
@@ -2791,11 +2823,11 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B110" s="5"/>
-      <c r="D110" s="4"/>
+      <c r="D110" s="5"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B111" s="5"/>
-      <c r="D111" s="5"/>
+      <c r="D111" s="4"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B112" s="5"/>
@@ -2803,7 +2835,7 @@
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="5"/>
-      <c r="D113" s="4"/>
+      <c r="D113" s="5"/>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="5"/>
@@ -2811,11 +2843,11 @@
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="5"/>
-      <c r="D115" s="5"/>
+      <c r="D115" s="4"/>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="5"/>
-      <c r="D116" s="4"/>
+      <c r="D116" s="5"/>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" s="5"/>
@@ -2834,12 +2866,12 @@
       <c r="D120" s="4"/>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B121" s="6"/>
+      <c r="B121" s="5"/>
       <c r="D121" s="4"/>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B122" s="5"/>
-      <c r="D122" s="5"/>
+      <c r="B122" s="6"/>
+      <c r="D122" s="4"/>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" s="5"/>
@@ -2847,18 +2879,18 @@
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" s="5"/>
-      <c r="D124" s="4"/>
+      <c r="D124" s="5"/>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" s="5"/>
-      <c r="D125" s="5"/>
+      <c r="D125" s="4"/>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" s="5"/>
       <c r="D126" s="5"/>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B127" s="4"/>
+      <c r="B127" s="5"/>
       <c r="D127" s="5"/>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
@@ -2866,7 +2898,7 @@
       <c r="D128" s="5"/>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B129" s="5"/>
+      <c r="B129" s="4"/>
       <c r="D129" s="5"/>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
@@ -2890,7 +2922,7 @@
       <c r="D134" s="5"/>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B135" s="6"/>
+      <c r="B135" s="5"/>
       <c r="D135" s="5"/>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.25">
@@ -2902,7 +2934,7 @@
       <c r="D137" s="5"/>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B138" s="5"/>
+      <c r="B138" s="6"/>
       <c r="D138" s="5"/>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.25">
@@ -2930,7 +2962,7 @@
       <c r="D144" s="5"/>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B145" s="6"/>
+      <c r="B145" s="5"/>
       <c r="D145" s="5"/>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.25">
@@ -2938,7 +2970,7 @@
       <c r="D146" s="5"/>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B147" s="5"/>
+      <c r="B147" s="6"/>
       <c r="D147" s="5"/>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
@@ -2954,7 +2986,7 @@
       <c r="D150" s="5"/>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B151" s="6"/>
+      <c r="B151" s="5"/>
       <c r="D151" s="5"/>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.25">
@@ -2962,19 +2994,19 @@
       <c r="D152" s="5"/>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B153" s="5"/>
+      <c r="B153" s="6"/>
       <c r="D153" s="5"/>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B154" s="4"/>
+      <c r="B154" s="5"/>
       <c r="D154" s="5"/>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B155" s="6"/>
+      <c r="B155" s="4"/>
       <c r="D155" s="5"/>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B156" s="5"/>
+      <c r="B156" s="6"/>
       <c r="D156" s="5"/>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.25">
@@ -3323,7 +3355,7 @@
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B243" s="5"/>
-      <c r="D243" s="6"/>
+      <c r="D243" s="5"/>
     </row>
     <row r="244" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B244" s="5"/>
@@ -3366,6 +3398,7 @@
       <c r="D253" s="6"/>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B254" s="5"/>
       <c r="D254" s="6"/>
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.25">
@@ -3548,9 +3581,12 @@
     <row r="314" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D314" s="6"/>
     </row>
+    <row r="315" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D315" s="6"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:D95">
-    <sortCondition ref="A2:A95"/>
+  <sortState ref="A2:D96">
+    <sortCondition ref="A2:A96"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3559,13 +3595,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D280"/>
+  <dimension ref="A1:D286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A3" sqref="A3:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -3574,7 +3610,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
@@ -3583,7 +3619,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3594,582 +3630,630 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="10">
+        <v>2</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="10">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="10">
+        <v>3</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="10">
+        <v>4</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="10">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="10">
-        <v>3</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="10">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="10">
-        <v>5</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="10">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="10">
-        <v>2</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="10">
-        <v>3</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="10">
-        <v>4</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="10">
-        <v>0</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="10">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="10">
-        <v>0</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="10">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="10">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="10">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B19" s="10">
         <v>0</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B20" s="10">
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>42</v>
+      <c r="A21" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B21" s="10">
         <v>0</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>42</v>
+      <c r="A22" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B22" s="10">
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>46</v>
+      <c r="A23" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B23" s="10">
         <v>0</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>226</v>
+      <c r="C23" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>46</v>
+      <c r="A24" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B24" s="10">
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>50</v>
+      <c r="A25" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B25" s="10">
         <v>0</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>50</v>
+      <c r="A26" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B26" s="10">
         <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>52</v>
+      <c r="A27" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B27" s="10">
         <v>0</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>52</v>
+      <c r="A28" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B28" s="10">
         <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B29" s="10">
         <v>0</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B30" s="10">
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>58</v>
+      <c r="A31" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="B31" s="10">
         <v>0</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>58</v>
+      <c r="A32" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="B32" s="10">
         <v>1</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>62</v>
+      <c r="A33" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="B33" s="10">
         <v>0</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>62</v>
+      <c r="A34" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="B34" s="10">
         <v>1</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B35" s="10">
         <v>0</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B36" s="10">
         <v>1</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>13</v>
+      <c r="A37" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B37" s="10">
+        <v>0</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="10">
         <v>1</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="10">
-        <v>2</v>
-      </c>
       <c r="C38" s="3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>13</v>
+      <c r="A39" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="B39" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>13</v>
+      <c r="A40" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="B40" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>13</v>
+      <c r="A41" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="B41" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>13</v>
+      <c r="A42" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="B42" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B43" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B44" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B45" s="10">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>227</v>
+        <v>3</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B46" s="10">
-        <v>2</v>
-      </c>
-      <c r="C46" t="s">
-        <v>239</v>
+        <v>4</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B47" s="10">
-        <v>0</v>
-      </c>
-      <c r="C47" t="s">
-        <v>226</v>
+        <v>5</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B48" s="10">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>227</v>
+        <v>6</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B49" s="10">
-        <v>2</v>
-      </c>
-      <c r="C49" t="s">
-        <v>239</v>
+        <v>7</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B50" s="10">
         <v>0</v>
       </c>
-      <c r="C50" t="s">
-        <v>226</v>
+      <c r="C50" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B51" s="10">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B52" s="10">
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
+      <c r="A53" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="10">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
+      <c r="A54" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="10">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
+      <c r="A55" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="10">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
+      <c r="A56" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" s="10">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
+      <c r="A57" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="10">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
+      <c r="A58" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" s="10">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
+      <c r="A60" s="7"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
@@ -4178,13 +4262,13 @@
       <c r="A62" s="8"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
+      <c r="A63" s="7"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
+      <c r="A65" s="7"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
@@ -4193,7 +4277,7 @@
       <c r="A67" s="8"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
+      <c r="A68" s="8"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
@@ -4202,10 +4286,10 @@
       <c r="A70" s="8"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
+      <c r="A71" s="8"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
+      <c r="A72" s="8"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
@@ -4217,7 +4301,7 @@
       <c r="A75" s="8"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="7"/>
+      <c r="A76" s="8"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
@@ -4232,10 +4316,10 @@
       <c r="A80" s="7"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
+      <c r="A81" s="8"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
+      <c r="A82" s="7"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
@@ -4244,52 +4328,52 @@
       <c r="A84" s="7"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
+      <c r="A85" s="8"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
+      <c r="A86" s="7"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="7"/>
+      <c r="A88" s="8"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="8"/>
+      <c r="A90" s="7"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="7"/>
+      <c r="A92" s="8"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="8"/>
+      <c r="A94" s="7"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="7"/>
+      <c r="A96" s="8"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="8"/>
+      <c r="A98" s="7"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="7"/>
+      <c r="A100" s="8"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
@@ -4301,7 +4385,7 @@
       <c r="A103" s="7"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="7"/>
+      <c r="A104" s="8"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
@@ -4310,28 +4394,28 @@
       <c r="A106" s="7"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="8"/>
+      <c r="A107" s="7"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="8"/>
+      <c r="A108" s="7"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="8"/>
+      <c r="A109" s="7"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="8"/>
+      <c r="A110" s="7"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="8"/>
+      <c r="A111" s="7"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="8"/>
+      <c r="A112" s="7"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="7"/>
+      <c r="A114" s="8"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
@@ -4340,13 +4424,13 @@
       <c r="A116" s="8"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="7"/>
+      <c r="A117" s="8"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="7"/>
+      <c r="A118" s="8"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="7"/>
+      <c r="A119" s="8"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
@@ -4358,16 +4442,16 @@
       <c r="A122" s="8"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="8"/>
+      <c r="A123" s="7"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="8"/>
+      <c r="A124" s="7"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="8"/>
+      <c r="A125" s="7"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="8"/>
+      <c r="A126" s="7"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
@@ -4385,40 +4469,40 @@
       <c r="A131" s="8"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="7"/>
+      <c r="A132" s="8"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="7"/>
+      <c r="A134" s="8"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="7"/>
+      <c r="A135" s="8"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="7"/>
+      <c r="A137" s="8"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="8"/>
+      <c r="A138" s="7"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="8"/>
+      <c r="A140" s="7"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="8"/>
+      <c r="A141" s="7"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="8"/>
+      <c r="A143" s="7"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
@@ -4427,7 +4511,7 @@
       <c r="A145" s="8"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="7"/>
+      <c r="A146" s="8"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
@@ -4436,34 +4520,34 @@
       <c r="A148" s="8"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="7"/>
+      <c r="A149" s="8"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="7"/>
+      <c r="A151" s="8"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="7"/>
+      <c r="A153" s="8"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="8"/>
+      <c r="A155" s="7"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="8"/>
+      <c r="A157" s="7"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="8"/>
+      <c r="A158" s="7"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="7"/>
@@ -4484,7 +4568,7 @@
       <c r="A164" s="8"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="8"/>
+      <c r="A165" s="7"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="8"/>
@@ -4532,25 +4616,25 @@
       <c r="A180" s="8"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="7"/>
+      <c r="A181" s="8"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="8"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="7"/>
+      <c r="A183" s="8"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="8"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="7"/>
+      <c r="A185" s="8"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="8"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="8"/>
+      <c r="A187" s="7"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="8"/>
@@ -4559,34 +4643,34 @@
       <c r="A189" s="7"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="7"/>
+      <c r="A190" s="8"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="7"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="7"/>
+      <c r="A192" s="8"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="7"/>
+      <c r="A193" s="8"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="6"/>
+      <c r="A194" s="8"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="6"/>
+      <c r="A195" s="7"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="6"/>
+      <c r="A196" s="7"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="6"/>
+      <c r="A197" s="7"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="6"/>
+      <c r="A198" s="7"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="6"/>
+      <c r="A199" s="7"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
@@ -4830,6 +4914,24 @@
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="6"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="6"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="6"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="6"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="6"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="6"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rmonize/data_dictionary/DD_KORA_S1_P2.xlsx
+++ b/rmonize/data_dictionary/DD_KORA_S1_P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5601A947-7A3E-4434-83C2-488FBCEC2C65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D504AB59-79F5-4B22-897D-1AD7FA159DCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -727,15 +727,9 @@
     <t>Minced meat</t>
   </si>
   <si>
-    <t>AI13ABSC</t>
-  </si>
-  <si>
     <t>highest school or university degree</t>
   </si>
   <si>
-    <t>AI14ABSC</t>
-  </si>
-  <si>
     <t>highest vocational degree</t>
   </si>
   <si>
@@ -764,6 +758,12 @@
   </si>
   <si>
     <t>Ingenieur-Schule/Polytechnikum</t>
+  </si>
+  <si>
+    <t>ai13absc</t>
+  </si>
+  <si>
+    <t>ai14absc</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1269,7 @@
   <dimension ref="A1:J315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A108"/>
+      <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,10 +1342,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>6</v>
@@ -1356,10 +1356,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>6</v>
@@ -3598,7 +3598,7 @@
   <dimension ref="A1:D286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C14"/>
+      <selection activeCell="A3" sqref="A3:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3635,134 +3635,134 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B5" s="2">
         <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B6" s="2">
         <v>4</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B9" s="10">
         <v>0</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B11" s="2">
         <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B12" s="2">
         <v>3</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B13" s="2">
         <v>4</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B14" s="2">
         <v>5</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -5181,6 +5181,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
@@ -5190,15 +5199,6 @@
     <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5221,6 +5221,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDB1557E-B519-46C1-8C0E-CA7CA5BBAB79}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C5FC19-F4BC-4ACD-86FC-72730E460845}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -5235,12 +5243,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDB1557E-B519-46C1-8C0E-CA7CA5BBAB79}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>